--- a/appium-autotest/src/test/resources/data/TestResult.xlsx
+++ b/appium-autotest/src/test/resources/data/TestResult.xlsx
@@ -12,17 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>13/12/2022</t>
-  </si>
-  <si>
-    <t>Vé khứ hồi</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -65,24 +55,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B2:D2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="2">
-      <c r="B2" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>